--- a/VersionRecords/Version 5.3.5 20170321/版本Bug和特性计划及评审表v5.3.6_马丁组.xlsx
+++ b/VersionRecords/Version 5.3.5 20170321/版本Bug和特性计划及评审表v5.3.6_马丁组.xlsx
@@ -22,7 +22,7 @@
     <sheet name="05 数据修复" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本X.X.X 新特性|Fix Bug'!$A$1:$W$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本X.X.X 新特性|Fix Bug'!$A$1:$W$10</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="88">
   <si>
     <t>No</t>
   </si>
@@ -278,38 +278,6 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>BS防欺诈认证房东姓名身份证号验证</t>
-    <rPh sb="2" eb="3">
-      <t>fang</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>qi'z</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ren'zheng</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>fang'dong</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>xing'm</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>shen'f</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>zheng'hao</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>yan'z</t>
-    </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>BS</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>游侠</t>
     <rPh sb="0" eb="1">
       <t>you'xia</t>
@@ -320,13 +288,6 @@
     <t>墨菲</t>
     <rPh sb="0" eb="1">
       <t>mo'fei</t>
-    </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>哑铃</t>
-    <rPh sb="0" eb="1">
-      <t>ya'lign</t>
     </rPh>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
@@ -427,6 +388,13 @@
   </si>
   <si>
     <t>BS</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>书生</t>
+    <rPh sb="0" eb="1">
+      <t>shu'shegn</t>
+    </rPh>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -1478,10 +1446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X161"/>
+  <dimension ref="A1:X160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1599,7 +1567,7 @@
         <v>70</v>
       </c>
       <c r="F2" s="58" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G2" s="58" t="s">
         <v>75</v>
@@ -1615,7 +1583,7 @@
       </c>
       <c r="K2" s="58"/>
       <c r="L2" s="75" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M2" s="58" t="s">
         <v>72</v>
@@ -1645,13 +1613,13 @@
         <v>69</v>
       </c>
       <c r="D3" s="74" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E3" s="58" t="s">
         <v>70</v>
       </c>
       <c r="F3" s="58" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G3" s="58" t="s">
         <v>71</v>
@@ -1667,7 +1635,7 @@
       </c>
       <c r="K3" s="58"/>
       <c r="L3" s="58" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M3" s="58" t="s">
         <v>72</v>
@@ -1687,8 +1655,8 @@
       <c r="X3" s="70"/>
     </row>
     <row r="4" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A4" s="76">
-        <v>3</v>
+      <c r="A4" s="51">
+        <v>4</v>
       </c>
       <c r="B4" s="76" t="s">
         <v>68</v>
@@ -1697,13 +1665,13 @@
         <v>69</v>
       </c>
       <c r="D4" s="74" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E4" s="58" t="s">
         <v>70</v>
       </c>
       <c r="F4" s="58" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G4" s="58" t="s">
         <v>75</v>
@@ -1718,8 +1686,8 @@
         <v>42810</v>
       </c>
       <c r="K4" s="58"/>
-      <c r="L4" s="58" t="s">
-        <v>80</v>
+      <c r="L4" s="75" t="s">
+        <v>76</v>
       </c>
       <c r="M4" s="58" t="s">
         <v>72</v>
@@ -1739,8 +1707,8 @@
       <c r="X4" s="70"/>
     </row>
     <row r="5" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A5" s="51">
-        <v>4</v>
+      <c r="A5" s="76">
+        <v>5</v>
       </c>
       <c r="B5" s="76" t="s">
         <v>68</v>
@@ -1748,17 +1716,17 @@
       <c r="C5" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="74" t="s">
-        <v>84</v>
+      <c r="D5" s="53" t="s">
+        <v>82</v>
       </c>
       <c r="E5" s="58" t="s">
         <v>70</v>
       </c>
       <c r="F5" s="58" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G5" s="58" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H5" s="59">
         <v>42810</v>
@@ -1766,25 +1734,33 @@
       <c r="I5" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="59">
+        <v>42810</v>
+      </c>
       <c r="K5" s="58"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
+      <c r="L5" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="M5" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="N5" s="58" t="s">
+        <v>73</v>
+      </c>
       <c r="O5" s="58"/>
       <c r="P5" s="75"/>
       <c r="Q5" s="59"/>
       <c r="R5" s="75"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="56"/>
-      <c r="U5" s="56"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
       <c r="V5" s="65"/>
       <c r="W5" s="77"/>
       <c r="X5" s="70"/>
     </row>
     <row r="6" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="76">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="76" t="s">
         <v>68</v>
@@ -1792,17 +1768,17 @@
       <c r="C6" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="53" t="s">
-        <v>85</v>
+      <c r="D6" s="74" t="s">
+        <v>83</v>
       </c>
       <c r="E6" s="58" t="s">
         <v>70</v>
       </c>
       <c r="F6" s="58" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G6" s="58" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H6" s="59">
         <v>42810</v>
@@ -1810,25 +1786,33 @@
       <c r="I6" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="J6" s="59"/>
+      <c r="J6" s="59">
+        <v>42810</v>
+      </c>
       <c r="K6" s="58"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="58"/>
+      <c r="L6" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="N6" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6" s="64"/>
       <c r="P6" s="75"/>
       <c r="Q6" s="59"/>
       <c r="R6" s="75"/>
-      <c r="S6" s="66"/>
-      <c r="T6" s="66"/>
-      <c r="U6" s="66"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="56"/>
+      <c r="U6" s="56"/>
       <c r="V6" s="65"/>
       <c r="W6" s="77"/>
       <c r="X6" s="70"/>
     </row>
     <row r="7" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A7" s="76">
-        <v>6</v>
+      <c r="A7" s="51">
+        <v>7</v>
       </c>
       <c r="B7" s="76" t="s">
         <v>68</v>
@@ -1837,13 +1821,13 @@
         <v>69</v>
       </c>
       <c r="D7" s="74" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E7" s="58" t="s">
         <v>70</v>
       </c>
       <c r="F7" s="58" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G7" s="58" t="s">
         <v>75</v>
@@ -1854,12 +1838,20 @@
       <c r="I7" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="J7" s="59"/>
+      <c r="J7" s="59">
+        <v>42810</v>
+      </c>
       <c r="K7" s="58"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="64"/>
+      <c r="L7" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="N7" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="O7" s="58"/>
       <c r="P7" s="75"/>
       <c r="Q7" s="59"/>
       <c r="R7" s="75"/>
@@ -1870,47 +1862,30 @@
       <c r="W7" s="77"/>
       <c r="X7" s="70"/>
     </row>
-    <row r="8" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A8" s="51">
-        <v>7</v>
-      </c>
-      <c r="B8" s="76" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="74" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="58" t="s">
-        <v>70</v>
-      </c>
+    <row r="8" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="58"/>
       <c r="F8" s="58"/>
-      <c r="G8" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="H8" s="59">
-        <v>42810</v>
-      </c>
-      <c r="I8" s="58" t="s">
-        <v>71</v>
-      </c>
+      <c r="G8" s="58"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
       <c r="J8" s="59"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="75"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="62"/>
       <c r="M8" s="58"/>
       <c r="N8" s="58"/>
       <c r="O8" s="58"/>
-      <c r="P8" s="75"/>
+      <c r="P8" s="62"/>
       <c r="Q8" s="59"/>
-      <c r="R8" s="75"/>
+      <c r="R8" s="62"/>
       <c r="S8" s="56"/>
       <c r="T8" s="56"/>
       <c r="U8" s="56"/>
-      <c r="V8" s="65"/>
-      <c r="W8" s="77"/>
-      <c r="X8" s="70"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="57"/>
     </row>
     <row r="9" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="51"/>
@@ -1928,7 +1903,7 @@
       <c r="M9" s="58"/>
       <c r="N9" s="58"/>
       <c r="O9" s="58"/>
-      <c r="P9" s="62"/>
+      <c r="P9" s="56"/>
       <c r="Q9" s="59"/>
       <c r="R9" s="62"/>
       <c r="S9" s="56"/>
@@ -1953,7 +1928,7 @@
       <c r="M10" s="58"/>
       <c r="N10" s="58"/>
       <c r="O10" s="58"/>
-      <c r="P10" s="56"/>
+      <c r="P10" s="65"/>
       <c r="Q10" s="59"/>
       <c r="R10" s="62"/>
       <c r="S10" s="56"/>
@@ -1966,26 +1941,26 @@
       <c r="A11" s="51"/>
       <c r="B11" s="51"/>
       <c r="C11" s="51"/>
-      <c r="D11" s="52"/>
+      <c r="D11" s="54"/>
       <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
+      <c r="F11" s="60"/>
       <c r="G11" s="58"/>
       <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
+      <c r="I11" s="58"/>
       <c r="J11" s="59"/>
-      <c r="K11" s="63"/>
+      <c r="K11" s="58"/>
       <c r="L11" s="62"/>
       <c r="M11" s="58"/>
       <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="65"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="62"/>
       <c r="Q11" s="59"/>
       <c r="R11" s="62"/>
       <c r="S11" s="56"/>
       <c r="T11" s="56"/>
       <c r="U11" s="56"/>
       <c r="V11" s="56"/>
-      <c r="W11" s="57"/>
+      <c r="W11" s="71"/>
     </row>
     <row r="12" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="51"/>
@@ -2056,11 +2031,11 @@
       <c r="P14" s="62"/>
       <c r="Q14" s="59"/>
       <c r="R14" s="62"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="56"/>
-      <c r="U14" s="56"/>
-      <c r="V14" s="56"/>
-      <c r="W14" s="71"/>
+      <c r="S14" s="67"/>
+      <c r="T14" s="67"/>
+      <c r="U14" s="67"/>
+      <c r="V14" s="67"/>
+      <c r="W14" s="72"/>
     </row>
     <row r="15" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A15" s="51"/>
@@ -2081,10 +2056,10 @@
       <c r="P15" s="62"/>
       <c r="Q15" s="59"/>
       <c r="R15" s="62"/>
-      <c r="S15" s="67"/>
-      <c r="T15" s="67"/>
-      <c r="U15" s="67"/>
-      <c r="V15" s="67"/>
+      <c r="S15" s="68"/>
+      <c r="T15" s="68"/>
+      <c r="U15" s="68"/>
+      <c r="V15" s="68"/>
       <c r="W15" s="72"/>
     </row>
     <row r="16" spans="1:24" ht="16" x14ac:dyDescent="0.15">
@@ -2099,7 +2074,7 @@
       <c r="I16" s="58"/>
       <c r="J16" s="59"/>
       <c r="K16" s="58"/>
-      <c r="L16" s="62"/>
+      <c r="L16" s="58"/>
       <c r="M16" s="58"/>
       <c r="N16" s="58"/>
       <c r="O16" s="62"/>
@@ -2109,7 +2084,7 @@
       <c r="S16" s="68"/>
       <c r="T16" s="68"/>
       <c r="U16" s="68"/>
-      <c r="V16" s="68"/>
+      <c r="V16" s="73"/>
       <c r="W16" s="72"/>
     </row>
     <row r="17" spans="1:23" ht="16" x14ac:dyDescent="0.15">
@@ -2134,7 +2109,7 @@
       <c r="S17" s="68"/>
       <c r="T17" s="68"/>
       <c r="U17" s="68"/>
-      <c r="V17" s="73"/>
+      <c r="V17" s="68"/>
       <c r="W17" s="72"/>
     </row>
     <row r="18" spans="1:23" ht="16" x14ac:dyDescent="0.15">
@@ -2149,7 +2124,7 @@
       <c r="I18" s="58"/>
       <c r="J18" s="59"/>
       <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
+      <c r="L18" s="62"/>
       <c r="M18" s="58"/>
       <c r="N18" s="58"/>
       <c r="O18" s="62"/>
@@ -2181,11 +2156,11 @@
       <c r="P19" s="62"/>
       <c r="Q19" s="59"/>
       <c r="R19" s="62"/>
-      <c r="S19" s="68"/>
-      <c r="T19" s="68"/>
-      <c r="U19" s="68"/>
-      <c r="V19" s="68"/>
-      <c r="W19" s="72"/>
+      <c r="S19" s="66"/>
+      <c r="T19" s="66"/>
+      <c r="U19" s="66"/>
+      <c r="V19" s="66"/>
+      <c r="W19" s="62"/>
     </row>
     <row r="20" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A20" s="51"/>
@@ -2206,11 +2181,11 @@
       <c r="P20" s="62"/>
       <c r="Q20" s="59"/>
       <c r="R20" s="62"/>
-      <c r="S20" s="66"/>
-      <c r="T20" s="66"/>
-      <c r="U20" s="66"/>
-      <c r="V20" s="66"/>
-      <c r="W20" s="62"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="56"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="71"/>
     </row>
     <row r="21" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A21" s="51"/>
@@ -2273,7 +2248,7 @@
       <c r="H23" s="59"/>
       <c r="I23" s="58"/>
       <c r="J23" s="59"/>
-      <c r="K23" s="58"/>
+      <c r="K23" s="60"/>
       <c r="L23" s="62"/>
       <c r="M23" s="58"/>
       <c r="N23" s="58"/>
@@ -2281,36 +2256,36 @@
       <c r="P23" s="62"/>
       <c r="Q23" s="59"/>
       <c r="R23" s="62"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="56"/>
-      <c r="U23" s="56"/>
-      <c r="V23" s="56"/>
-      <c r="W23" s="71"/>
+      <c r="S23" s="68"/>
+      <c r="T23" s="68"/>
+      <c r="U23" s="68"/>
+      <c r="V23" s="68"/>
+      <c r="W23" s="72"/>
     </row>
     <row r="24" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A24" s="51"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
-      <c r="D24" s="54"/>
+      <c r="D24" s="52"/>
       <c r="E24" s="58"/>
-      <c r="F24" s="60"/>
+      <c r="F24" s="58"/>
       <c r="G24" s="58"/>
       <c r="H24" s="59"/>
       <c r="I24" s="58"/>
       <c r="J24" s="59"/>
-      <c r="K24" s="60"/>
+      <c r="K24" s="58"/>
       <c r="L24" s="62"/>
       <c r="M24" s="58"/>
       <c r="N24" s="58"/>
-      <c r="O24" s="62"/>
+      <c r="O24" s="58"/>
       <c r="P24" s="62"/>
       <c r="Q24" s="59"/>
       <c r="R24" s="62"/>
-      <c r="S24" s="68"/>
-      <c r="T24" s="68"/>
-      <c r="U24" s="68"/>
-      <c r="V24" s="68"/>
-      <c r="W24" s="72"/>
+      <c r="S24" s="56"/>
+      <c r="T24" s="56"/>
+      <c r="U24" s="56"/>
+      <c r="V24" s="56"/>
+      <c r="W24" s="69"/>
     </row>
     <row r="25" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A25" s="51"/>
@@ -2335,7 +2310,7 @@
       <c r="T25" s="56"/>
       <c r="U25" s="56"/>
       <c r="V25" s="56"/>
-      <c r="W25" s="69"/>
+      <c r="W25" s="71"/>
     </row>
     <row r="26" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A26" s="51"/>
@@ -2566,25 +2541,25 @@
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
-      <c r="D35" s="52"/>
+      <c r="D35" s="53"/>
       <c r="E35" s="58"/>
       <c r="F35" s="58"/>
       <c r="G35" s="58"/>
       <c r="H35" s="59"/>
-      <c r="I35" s="58"/>
+      <c r="I35" s="59"/>
       <c r="J35" s="59"/>
       <c r="K35" s="58"/>
       <c r="L35" s="62"/>
-      <c r="M35" s="58"/>
+      <c r="M35" s="62"/>
       <c r="N35" s="58"/>
       <c r="O35" s="58"/>
       <c r="P35" s="62"/>
       <c r="Q35" s="59"/>
       <c r="R35" s="62"/>
-      <c r="S35" s="56"/>
-      <c r="T35" s="56"/>
-      <c r="U35" s="56"/>
-      <c r="V35" s="56"/>
+      <c r="S35" s="66"/>
+      <c r="T35" s="66"/>
+      <c r="U35" s="66"/>
+      <c r="V35" s="66"/>
       <c r="W35" s="71"/>
     </row>
     <row r="36" spans="1:23" ht="16" x14ac:dyDescent="0.15">
@@ -2616,14 +2591,14 @@
       <c r="A37" s="51"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
-      <c r="D37" s="53"/>
+      <c r="D37" s="55"/>
       <c r="E37" s="58"/>
       <c r="F37" s="58"/>
       <c r="G37" s="58"/>
       <c r="H37" s="59"/>
       <c r="I37" s="59"/>
       <c r="J37" s="59"/>
-      <c r="K37" s="58"/>
+      <c r="K37" s="63"/>
       <c r="L37" s="62"/>
       <c r="M37" s="62"/>
       <c r="N37" s="58"/>
@@ -2631,11 +2606,11 @@
       <c r="P37" s="62"/>
       <c r="Q37" s="59"/>
       <c r="R37" s="62"/>
-      <c r="S37" s="66"/>
-      <c r="T37" s="66"/>
-      <c r="U37" s="66"/>
-      <c r="V37" s="66"/>
-      <c r="W37" s="71"/>
+      <c r="S37" s="56"/>
+      <c r="T37" s="56"/>
+      <c r="U37" s="56"/>
+      <c r="V37" s="56"/>
+      <c r="W37" s="57"/>
     </row>
     <row r="38" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A38" s="51"/>
@@ -2788,24 +2763,24 @@
       <c r="W43" s="57"/>
     </row>
     <row r="44" spans="1:23" ht="16" x14ac:dyDescent="0.15">
-      <c r="A44" s="51"/>
-      <c r="B44" s="51"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="55"/>
-      <c r="E44" s="58"/>
+      <c r="A44" s="56"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="56"/>
       <c r="F44" s="58"/>
       <c r="G44" s="58"/>
-      <c r="H44" s="59"/>
-      <c r="I44" s="59"/>
-      <c r="J44" s="59"/>
+      <c r="H44" s="61"/>
+      <c r="I44" s="56"/>
+      <c r="J44" s="61"/>
       <c r="K44" s="63"/>
-      <c r="L44" s="62"/>
-      <c r="M44" s="62"/>
+      <c r="L44" s="56"/>
+      <c r="M44" s="56"/>
       <c r="N44" s="58"/>
-      <c r="O44" s="58"/>
-      <c r="P44" s="62"/>
-      <c r="Q44" s="59"/>
-      <c r="R44" s="62"/>
+      <c r="O44" s="56"/>
+      <c r="P44" s="56"/>
+      <c r="Q44" s="61"/>
+      <c r="R44" s="57"/>
       <c r="S44" s="56"/>
       <c r="T44" s="56"/>
       <c r="U44" s="56"/>
@@ -3194,7 +3169,7 @@
       <c r="D60" s="57"/>
       <c r="E60" s="56"/>
       <c r="F60" s="58"/>
-      <c r="G60" s="58"/>
+      <c r="G60" s="56"/>
       <c r="H60" s="61"/>
       <c r="I60" s="56"/>
       <c r="J60" s="61"/>
@@ -3343,7 +3318,7 @@
       <c r="C66" s="56"/>
       <c r="D66" s="57"/>
       <c r="E66" s="56"/>
-      <c r="F66" s="58"/>
+      <c r="F66" s="56"/>
       <c r="G66" s="56"/>
       <c r="H66" s="61"/>
       <c r="I66" s="56"/>
@@ -3437,7 +3412,7 @@
       <c r="V69" s="56"/>
       <c r="W69" s="57"/>
     </row>
-    <row r="70" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A70" s="56"/>
       <c r="B70" s="56"/>
       <c r="C70" s="56"/>
@@ -3451,7 +3426,7 @@
       <c r="K70" s="63"/>
       <c r="L70" s="56"/>
       <c r="M70" s="56"/>
-      <c r="N70" s="58"/>
+      <c r="N70" s="56"/>
       <c r="O70" s="56"/>
       <c r="P70" s="56"/>
       <c r="Q70" s="61"/>
@@ -4856,10 +4831,6 @@
       <c r="P126" s="56"/>
       <c r="Q126" s="61"/>
       <c r="R126" s="57"/>
-      <c r="S126" s="56"/>
-      <c r="T126" s="56"/>
-      <c r="U126" s="56"/>
-      <c r="V126" s="56"/>
       <c r="W126" s="57"/>
     </row>
     <row r="127" spans="1:23" x14ac:dyDescent="0.15">
@@ -5576,34 +5547,13 @@
       <c r="R160" s="57"/>
       <c r="W160" s="57"/>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A161" s="56"/>
-      <c r="B161" s="56"/>
-      <c r="C161" s="56"/>
-      <c r="D161" s="57"/>
-      <c r="E161" s="56"/>
-      <c r="F161" s="56"/>
-      <c r="G161" s="56"/>
-      <c r="H161" s="61"/>
-      <c r="I161" s="56"/>
-      <c r="J161" s="61"/>
-      <c r="K161" s="63"/>
-      <c r="L161" s="56"/>
-      <c r="M161" s="56"/>
-      <c r="N161" s="56"/>
-      <c r="O161" s="56"/>
-      <c r="P161" s="56"/>
-      <c r="Q161" s="61"/>
-      <c r="R161" s="57"/>
-      <c r="W161" s="57"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R1048576">
       <formula1>"能,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N70">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N69">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
@@ -5621,7 +5571,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>"紧急,不紧急"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 G1:G1048576 I1:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576 G1:G1048576 V1:V1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
